--- a/Gen1/Assembly/BOM_Misc.xlsx
+++ b/Gen1/Assembly/BOM_Misc.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kakareka\Documents\GitHub\PRiME\Gen1\Assembly\"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>16-002190E</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>optional, used to extend cable length</t>
+  </si>
+  <si>
+    <t>Fogg System 0395-2319:L12</t>
+  </si>
+  <si>
+    <t>Edwards TruWave to unterminated cable</t>
+  </si>
+  <si>
+    <t>Can be replaced with any cable that has the gray Truwave connector on one end</t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +619,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
